--- a/t1/指令.xlsx
+++ b/t1/指令.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\quartus\t1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F09BB7E-A028-4233-9A1E-F33700637C37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FDF00F-AE38-4018-ABCE-7110DCB47B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3855" yWindow="1357" windowWidth="20745" windowHeight="9781" xr2:uid="{8B02D224-DF14-432E-8D92-66095C1B953A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{8B02D224-DF14-432E-8D92-66095C1B953A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -637,7 +637,7 @@
         <v>010101011000000000100000</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O17" si="1">PHONETIC(C3:M3)</f>
+        <f>PHONETIC(C3:M3)</f>
         <v>1000000000100000</v>
       </c>
       <c r="P3">
@@ -656,7 +656,7 @@
         <v>10101010</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" ref="C4:C10" si="2">REPT(0,8-LEN(B4))&amp;B4</f>
+        <f t="shared" ref="C4:C10" si="1">REPT(0,8-LEN(B4))&amp;B4</f>
         <v>10101010</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -690,11 +690,11 @@
         <v>10</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f t="shared" ref="N4:N15" si="3">C4&amp;O4</f>
+        <f t="shared" ref="N4:N15" si="2">C4&amp;O4</f>
         <v>101010101000000001000000</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" si="1"/>
+        <f>PHONETIC(C4:M4)</f>
         <v>1000000001000000</v>
       </c>
       <c r="P4">
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00000000</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -747,11 +747,11 @@
         <v>13</v>
       </c>
       <c r="N5" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>000000001000000110001001</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O3:O17" si="3">PHONETIC(C5:M5)</f>
         <v>1000000110001001</v>
       </c>
       <c r="P5">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00000000</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -801,11 +801,11 @@
         <v>10</v>
       </c>
       <c r="N6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>000000001000000010000110</v>
+      </c>
+      <c r="O6" t="str">
         <f t="shared" si="3"/>
-        <v>000000001000000010000110</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="1"/>
         <v>1000000010000110</v>
       </c>
       <c r="P6">
@@ -824,7 +824,7 @@
         <v>1111</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00001111</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -858,11 +858,11 @@
         <v>13</v>
       </c>
       <c r="N7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>000011111000000010001111</v>
+      </c>
+      <c r="O7" t="str">
         <f t="shared" si="3"/>
-        <v>000011111000000010001111</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="1"/>
         <v>1000000010001111</v>
       </c>
       <c r="Q7" t="s">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00000000</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -912,11 +912,11 @@
         <v>10</v>
       </c>
       <c r="N8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>000000001000000000100000</v>
+      </c>
+      <c r="O8" t="str">
         <f t="shared" si="3"/>
-        <v>000000001000000000100000</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="1"/>
         <v>1000000000100000</v>
       </c>
       <c r="Q8">
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00000000</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -945,11 +945,11 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>000000001000000</v>
+      </c>
+      <c r="O9" t="str">
         <f t="shared" si="3"/>
-        <v>000000001000000</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>00000000</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -989,11 +989,11 @@
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0000000010000006543210</v>
+      </c>
+      <c r="O10" t="str">
         <f t="shared" si="3"/>
-        <v>0000000010000006543210</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="1"/>
         <v>10000006543210</v>
       </c>
     </row>
@@ -1025,11 +1025,11 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>xpcxmarpc+1cprmarwrrd</v>
+      </c>
+      <c r="O11" t="str">
         <f t="shared" si="3"/>
-        <v>xpcxmarpc+1cprmarwrrd</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="1"/>
         <v>xpcxmarpc+1cprmarwrrd</v>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
         <v>1000101</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000101</v>
       </c>
     </row>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0111001</v>
+      </c>
+      <c r="O13" t="str">
         <f t="shared" si="3"/>
-        <v>0111001</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="1"/>
         <v>0111001</v>
       </c>
     </row>
@@ -1130,11 +1130,11 @@
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1000101</v>
+      </c>
+      <c r="O14" t="str">
         <f t="shared" si="3"/>
-        <v>1000101</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="1"/>
         <v>1000101</v>
       </c>
     </row>
@@ -1165,11 +1165,11 @@
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0100010</v>
+      </c>
+      <c r="O15" t="str">
         <f t="shared" si="3"/>
-        <v>0100010</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="1"/>
         <v>0100010</v>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
       <c r="O16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
